--- a/output/fit_clients/fit_round_196.xlsx
+++ b/output/fit_clients/fit_round_196.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1890337523.506213</v>
+        <v>2098736423.142958</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0870079787360255</v>
+        <v>0.1047263282262708</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04166612031129303</v>
+        <v>0.03851123064285619</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>945168742.6128057</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1717602992.863068</v>
+        <v>2537922292.672351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1342359180682834</v>
+        <v>0.1337251562413512</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04776481661603927</v>
+        <v>0.0309494285514718</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>858801492.7320403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3387600888.668095</v>
+        <v>4871705895.997074</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1452016337051878</v>
+        <v>0.1322600176826695</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02412481846085276</v>
+        <v>0.0359051762110303</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1693800415.109833</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3343460959.999602</v>
+        <v>4088286849.798016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07327709772404292</v>
+        <v>0.09744593294927156</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03149087257475811</v>
+        <v>0.04673318657702702</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1671730527.113198</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2779233725.90138</v>
+        <v>2111250867.287302</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1176739203243045</v>
+        <v>0.1291042859497081</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03876213840331052</v>
+        <v>0.05393979951634077</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1389616808.189089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2073211433.998403</v>
+        <v>2970896411.785791</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07944974693032945</v>
+        <v>0.07888935286422714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04232612722059156</v>
+        <v>0.04840918383571293</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>61</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1036605771.071252</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3889317415.70755</v>
+        <v>2746794023.974606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.171873613841428</v>
+        <v>0.1728393095809838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02055835185301489</v>
+        <v>0.02526799242619239</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>62</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1944658856.256476</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1465995498.949708</v>
+        <v>1976542808.216208</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1849142552404059</v>
+        <v>0.143568200205532</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02381931676956326</v>
+        <v>0.02675727858857027</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>732997850.1676522</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4985332513.973415</v>
+        <v>5165373156.773579</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2015748687470103</v>
+        <v>0.1415122076288629</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0497240415891742</v>
+        <v>0.03647118595161377</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>82</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2492666355.119449</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3465612188.14818</v>
+        <v>3656660332.196342</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1878563896349479</v>
+        <v>0.14934720289903</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03304900755668492</v>
+        <v>0.04991726088111539</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>81</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1732806069.44861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2761285028.735123</v>
+        <v>2014302110.609853</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1531792366616007</v>
+        <v>0.1374913004481157</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05061039256172298</v>
+        <v>0.03602237542883088</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>69</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1380642510.508686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3883341842.085061</v>
+        <v>3545925294.587436</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08433638872905058</v>
+        <v>0.07189867130375947</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02207535562595646</v>
+        <v>0.01916685617572875</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1941670981.880905</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3652123576.268012</v>
+        <v>3915394825.095834</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1496843557965873</v>
+        <v>0.17172099388501</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02942435773343186</v>
+        <v>0.02838468412424212</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>65</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1826061775.333894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1238813221.358378</v>
+        <v>1651046587.914624</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07414782042271036</v>
+        <v>0.09171223199793092</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03365912977975356</v>
+        <v>0.04507059154650719</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>619406636.942492</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2074573781.163434</v>
+        <v>2227489084.683277</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07711770514146311</v>
+        <v>0.09680272412530315</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04594330082073956</v>
+        <v>0.04173130866126663</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1037286959.388439</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4218575363.188354</v>
+        <v>4708828662.689897</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1706145546098899</v>
+        <v>0.1099031057278931</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03733128794113623</v>
+        <v>0.04615382915551593</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>57</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2109287705.389348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3284714130.911574</v>
+        <v>3262920928.335224</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1353071832285548</v>
+        <v>0.1318585278563249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02149978597279446</v>
+        <v>0.02861695009881534</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>64</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1642357075.057213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1362520768.60492</v>
+        <v>1197264886.423396</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1614692249200538</v>
+        <v>0.125607279879416</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02279010319680468</v>
+        <v>0.0241634892724513</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>681260501.7835448</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2164798768.900048</v>
+        <v>2483397844.884387</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1223629198037127</v>
+        <v>0.1141778882323251</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02979671175013515</v>
+        <v>0.0300679325465696</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1082399393.219496</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2534966934.045415</v>
+        <v>1700255173.331067</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07654693463022093</v>
+        <v>0.07226557263257294</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04501204383743328</v>
+        <v>0.03012794485335881</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1267483451.782249</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3682877236.853708</v>
+        <v>2954582998.304739</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09348278810514389</v>
+        <v>0.1216944731277102</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04240235265922374</v>
+        <v>0.05313488137986162</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>54</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1841438639.044591</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1292571041.371962</v>
+        <v>952801103.9658945</v>
       </c>
       <c r="F23" t="n">
-        <v>0.142517046352474</v>
+        <v>0.1229077735610341</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04987062413627213</v>
+        <v>0.04210844626254293</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>646285541.5557803</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2680598659.227276</v>
+        <v>3206049480.489993</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1220042870030315</v>
+        <v>0.1117027537964453</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03612993193476838</v>
+        <v>0.02342539428043732</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>57</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1340299386.292298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1056742979.518813</v>
+        <v>1048949995.093295</v>
       </c>
       <c r="F25" t="n">
-        <v>0.101860228455523</v>
+        <v>0.1088892627134797</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02258164548157427</v>
+        <v>0.01901896889554016</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>528371540.6820518</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1377018226.706924</v>
+        <v>1425923085.828627</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1151063102327451</v>
+        <v>0.0815586644455473</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02458468684549126</v>
+        <v>0.0362242082277129</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>688509177.7461271</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3654866933.818652</v>
+        <v>3095506006.05491</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09622023251871283</v>
+        <v>0.1410468639234082</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02362990460243646</v>
+        <v>0.02520682359623459</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>45</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1827433494.211276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2737441897.816052</v>
+        <v>2693344666.093431</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1261842519357764</v>
+        <v>0.1002138807869342</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03925479594411334</v>
+        <v>0.04016686589167993</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1368720937.343203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5676759398.188371</v>
+        <v>5355893214.487512</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1092565310919994</v>
+        <v>0.1414739742794767</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02822195528296192</v>
+        <v>0.02994775393161166</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2838379599.708644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2406484281.110358</v>
+        <v>2356968068.156635</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1147060796936333</v>
+        <v>0.08642789321888864</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02515368164509637</v>
+        <v>0.03248063719522951</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1203242224.313532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>910162219.3556536</v>
+        <v>934073663.4222314</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08343578741180246</v>
+        <v>0.1084318653517081</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03246080419345155</v>
+        <v>0.05007868112199456</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>455081129.3500409</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1456261690.629266</v>
+        <v>1445119311.045326</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08933105069017022</v>
+        <v>0.1008253725329435</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02974602677542535</v>
+        <v>0.03884422203018437</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>728130904.5572975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2618909301.420308</v>
+        <v>2778529413.218836</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2023096719258465</v>
+        <v>0.174904156506018</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05143725595198678</v>
+        <v>0.03959977195357825</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1309454678.772094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1130534042.028066</v>
+        <v>1070988360.842054</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1038566489146973</v>
+        <v>0.1203988154873975</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02424259866625897</v>
+        <v>0.02138218945246425</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>565267037.4107349</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1129527645.237861</v>
+        <v>1243946382.770478</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09239986813764801</v>
+        <v>0.09188879057414105</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04160970770479596</v>
+        <v>0.03935492319301194</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>564763812.7699744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2295585511.174244</v>
+        <v>2197798486.013775</v>
       </c>
       <c r="F36" t="n">
-        <v>0.113371701278547</v>
+        <v>0.111124763133579</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02449326448640221</v>
+        <v>0.02218582473876673</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>50</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1147792793.927794</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2131618266.583802</v>
+        <v>1804972144.210691</v>
       </c>
       <c r="F37" t="n">
-        <v>0.101055351433269</v>
+        <v>0.1109301060487493</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03867865340976815</v>
+        <v>0.04036183044550835</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1065809178.663374</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2057085029.096285</v>
+        <v>1794567959.694209</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1014259168750317</v>
+        <v>0.08061943393553488</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03014271187054215</v>
+        <v>0.03554864827057211</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1028542485.08685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2216670375.19225</v>
+        <v>1815789726.724349</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1922361554576564</v>
+        <v>0.1930963827999982</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02310114402528482</v>
+        <v>0.03200404245074242</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1108335149.244118</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1237773484.789683</v>
+        <v>1515505054.299799</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1113637436512509</v>
+        <v>0.1495488819992995</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04325973678369543</v>
+        <v>0.05074803408603855</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>618886774.2243778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2277374145.909894</v>
+        <v>1813385688.119641</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1266072002838796</v>
+        <v>0.1225728988139051</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04405762732530838</v>
+        <v>0.03842439552546752</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>49</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1138687120.045774</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3390910555.936623</v>
+        <v>3258174941.05102</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08209192033287423</v>
+        <v>0.1079505159662736</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03557019431955929</v>
+        <v>0.03482948257339644</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1695455265.307544</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3023444818.11033</v>
+        <v>2109533633.234695</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1679236917250935</v>
+        <v>0.1469208296966851</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02421737880097904</v>
+        <v>0.02214976330147475</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>67</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1511722405.069394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1769733587.350186</v>
+        <v>2351559253.556035</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09331154270451328</v>
+        <v>0.08934039762960568</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02997883732389603</v>
+        <v>0.02962172206282353</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>884866854.0425913</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1722245481.667047</v>
+        <v>1823076960.329822</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1224979320849491</v>
+        <v>0.177636216053492</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0407573503612785</v>
+        <v>0.03539698137923521</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>861122703.7152021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4083973969.7195</v>
+        <v>4829760146.966993</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1684354345980664</v>
+        <v>0.1485047209056839</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06119973034270314</v>
+        <v>0.04617321579406718</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>70</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2041986959.214486</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4662817826.034052</v>
+        <v>3358430313.101092</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1417419960610682</v>
+        <v>0.1238467642745442</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05052889319161906</v>
+        <v>0.04942649947981525</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>52</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2331408949.668224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4415612972.248214</v>
+        <v>3332136724.1207</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0869813037831616</v>
+        <v>0.08040655786119458</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03865600091868002</v>
+        <v>0.03543956727268627</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2207806496.300297</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1790750676.38337</v>
+        <v>1972820788.583213</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1760968073572381</v>
+        <v>0.196321589100668</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04185350227390845</v>
+        <v>0.03916920264163464</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>895375324.9977591</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2923590149.277239</v>
+        <v>3485984291.401686</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1739527688716795</v>
+        <v>0.1503555385488914</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03733591452267778</v>
+        <v>0.0422936614061008</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>67</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1461795139.903626</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1456778285.128132</v>
+        <v>1380659902.829005</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1195780889736189</v>
+        <v>0.185628785275047</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04049503099398493</v>
+        <v>0.03392389286932612</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>728389152.4804292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3592155505.361259</v>
+        <v>4894320890.95149</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1009084629545172</v>
+        <v>0.1248909409736691</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04863371812390029</v>
+        <v>0.04703782418568962</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>81</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1796077833.143802</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3467466719.409444</v>
+        <v>2949326886.314898</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1599598263621122</v>
+        <v>0.2048446141761838</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02619467428050049</v>
+        <v>0.02699096518367664</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>56</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1733733359.845526</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4396629883.612482</v>
+        <v>4756332776.571989</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1179031856537014</v>
+        <v>0.1638647101984408</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04560228340266463</v>
+        <v>0.03395527400879098</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2198315037.003675</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3891762071.567728</v>
+        <v>4969443308.218905</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1757574306896449</v>
+        <v>0.1680359645842863</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02741332383683182</v>
+        <v>0.02888649911503228</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1945881005.876745</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1468317076.056057</v>
+        <v>1262417259.526795</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1352419927269549</v>
+        <v>0.1644113281301756</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04181598222481223</v>
+        <v>0.05619461612156634</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>734158584.9766917</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3137598811.534926</v>
+        <v>3324380954.454929</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1523410890641956</v>
+        <v>0.1546765460206079</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02427481649300546</v>
+        <v>0.01859997998604488</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>62</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1568799421.704072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1294036545.382787</v>
+        <v>1773633212.399781</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1697636416381271</v>
+        <v>0.1796847568635243</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0339127494958433</v>
+        <v>0.03092565925892664</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>647018322.6079912</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4309163989.420582</v>
+        <v>4897504679.239373</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1302764558592129</v>
+        <v>0.115426692987267</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0391285743636189</v>
+        <v>0.0393524664915177</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2154581955.703249</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2458934060.917511</v>
+        <v>2323065463.788465</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1406321048230404</v>
+        <v>0.153247934743723</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02889134730215416</v>
+        <v>0.0244592594241309</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1229467044.026193</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2067348177.22611</v>
+        <v>2826698207.032139</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1428480448368752</v>
+        <v>0.1691235355179583</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03196850446909574</v>
+        <v>0.02059278883429129</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>67</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1033674157.009449</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1451777632.772654</v>
+        <v>1330645547.414006</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1761209512303131</v>
+        <v>0.1595299097168468</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03312522414303939</v>
+        <v>0.04834170434439247</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>725888792.1838301</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5264582101.509179</v>
+        <v>4810801523.924829</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1015563481125915</v>
+        <v>0.09048845723819667</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03465529031336996</v>
+        <v>0.03088273313213722</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>56</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2632291056.679717</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4505365952.384871</v>
+        <v>3837768530.920388</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1226399056541522</v>
+        <v>0.1906104135000858</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02155230683820466</v>
+        <v>0.02700931428893208</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>61</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2252683047.576125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4346447210.237201</v>
+        <v>4206500585.706163</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1373584348518881</v>
+        <v>0.1600363150274867</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02449926322588218</v>
+        <v>0.01967116570695515</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>71</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2173223603.011352</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4355293377.748333</v>
+        <v>5000023876.017471</v>
       </c>
       <c r="F66" t="n">
-        <v>0.130115977241709</v>
+        <v>0.1233522100166729</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03781924807975278</v>
+        <v>0.05054423780457343</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>57</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2177646681.444417</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2987527468.170286</v>
+        <v>2343504461.785713</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09792627532011751</v>
+        <v>0.06941415200149409</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03684480487488315</v>
+        <v>0.04061052398523913</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1493763753.352294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4184957074.752009</v>
+        <v>5853856878.270761</v>
       </c>
       <c r="F68" t="n">
-        <v>0.112716588087776</v>
+        <v>0.1385266316818174</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04147158380204546</v>
+        <v>0.03921743741003477</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>64</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2092478544.35049</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1702111146.61788</v>
+        <v>1709336119.294456</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1406974459908866</v>
+        <v>0.1568055911450704</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04312817525507339</v>
+        <v>0.05127689818400891</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>851055539.7059387</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2346665076.238532</v>
+        <v>3282603979.60196</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08285069794532361</v>
+        <v>0.0772461740638707</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03069231947754369</v>
+        <v>0.03464883502576002</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>56</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1173332472.575341</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4694827699.219881</v>
+        <v>4169295740.317025</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1846315392367419</v>
+        <v>0.1776194648519155</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02359445920658975</v>
+        <v>0.02958559038457717</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>71</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2347413932.513827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1398162770.581254</v>
+        <v>2270732086.978483</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09502134864837805</v>
+        <v>0.0770145058347492</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0359728969344842</v>
+        <v>0.04740601189975312</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>699081428.6465788</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3277184297.782142</v>
+        <v>3010333932.449197</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1118336029664877</v>
+        <v>0.08560112654360048</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04802230321645114</v>
+        <v>0.0509291904787808</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>74</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1638592119.449755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2645398195.352696</v>
+        <v>3072131767.677572</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1486269268629569</v>
+        <v>0.1475954647532494</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03083589610119516</v>
+        <v>0.03050598226838417</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>67</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1322699193.706282</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2318163142.638651</v>
+        <v>1975503709.637305</v>
       </c>
       <c r="F75" t="n">
-        <v>0.15894302819321</v>
+        <v>0.1300296278378679</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03708847834308917</v>
+        <v>0.03510657600930847</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1159081505.709577</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4469852765.990822</v>
+        <v>5233646507.491503</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1137437802868476</v>
+        <v>0.08324027886642381</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02097068783980331</v>
+        <v>0.03291588203276679</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>44</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2234926387.39291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1776078888.426132</v>
+        <v>1755645676.655812</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1777320755962029</v>
+        <v>0.175226727034163</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01940707208530258</v>
+        <v>0.02658428484225509</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>888039472.6117036</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3252844956.740488</v>
+        <v>3666329394.568141</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08827386440546155</v>
+        <v>0.1143216625571454</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03715705847830644</v>
+        <v>0.03480111950267554</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>68</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1626422497.546251</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1637277260.433631</v>
+        <v>1627226864.55647</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1387184849022664</v>
+        <v>0.1494986357314087</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02503142746796913</v>
+        <v>0.02497951795256277</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>818638688.3824567</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3574063830.12706</v>
+        <v>3479414766.211029</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06929112815152587</v>
+        <v>0.08013369128920525</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02718928428721214</v>
+        <v>0.03133436140942551</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>41</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1787031893.316184</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4730139780.726503</v>
+        <v>4566172179.267967</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1258123847121811</v>
+        <v>0.1278536626950585</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02894064455786673</v>
+        <v>0.02127760648892879</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2365069880.660129</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5687147079.874903</v>
+        <v>5067872476.338076</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1856586101280921</v>
+        <v>0.1866206201484676</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01930559804021239</v>
+        <v>0.02839972002919846</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2843573485.527388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2459369908.970812</v>
+        <v>2207541727.004312</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1364516366723731</v>
+        <v>0.1505635657191768</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04216866710757092</v>
+        <v>0.04514215293580675</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1229684996.911843</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2589180991.783669</v>
+        <v>1957891402.830503</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1025059358838578</v>
+        <v>0.1040290142069261</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04692378068090249</v>
+        <v>0.05139860201121148</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1294590414.59314</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3326280873.34493</v>
+        <v>3560598544.323653</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1277459693034526</v>
+        <v>0.1303756723304863</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0347800024928566</v>
+        <v>0.04832410730179895</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>74</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1663140532.842283</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2115767901.72678</v>
+        <v>1897908823.638066</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1707833937389416</v>
+        <v>0.1308925888686391</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01983658356353626</v>
+        <v>0.01890770780539107</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1057883994.578397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>917772549.7381226</v>
+        <v>1395590970.260607</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1408460116831209</v>
+        <v>0.1687134424795275</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02890214597908525</v>
+        <v>0.03543524212914175</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>458886258.1142293</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2810516697.399289</v>
+        <v>3541255102.153187</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1730529155424315</v>
+        <v>0.1173856373910577</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03769390010651932</v>
+        <v>0.03582712803526731</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>78</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1405258360.407094</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3431355231.78081</v>
+        <v>3449831493.059009</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1167379059148751</v>
+        <v>0.1014850836412326</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03250661077155166</v>
+        <v>0.02828087070853107</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1715677622.353099</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2053981500.674043</v>
+        <v>1582923203.896347</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09429090769621157</v>
+        <v>0.1197690769973462</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03769360400568285</v>
+        <v>0.03706234704207733</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1026990830.441027</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1991037362.597587</v>
+        <v>1599524004.471645</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1334311305672788</v>
+        <v>0.1644115189267002</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06116133897925181</v>
+        <v>0.05720384005711047</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>995518654.7315123</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2966007488.321042</v>
+        <v>2023755290.559837</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08848554392019142</v>
+        <v>0.100079517598679</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03185879011379334</v>
+        <v>0.03011025566815486</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>47</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1483003763.30039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4147256867.017108</v>
+        <v>4445980104.479647</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1296781245584003</v>
+        <v>0.1104159549756156</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04313105239610861</v>
+        <v>0.05038053691997083</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2073628424.600631</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1523354947.474173</v>
+        <v>1734706087.886792</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1392576686552631</v>
+        <v>0.1643279771107981</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02814470616239774</v>
+        <v>0.03017067893033627</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>761677410.0115126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2663074832.721977</v>
+        <v>2840425223.356346</v>
       </c>
       <c r="F95" t="n">
-        <v>0.094906414550539</v>
+        <v>0.09058135661222698</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04613329736022728</v>
+        <v>0.03924520400955434</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>47</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1331537440.564735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1589493424.831945</v>
+        <v>1460560381.360776</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1172333965503727</v>
+        <v>0.09770680766268529</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03525723995121709</v>
+        <v>0.03887542587010231</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>794746743.1917005</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3663119634.600561</v>
+        <v>4945488503.607419</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1373473925594994</v>
+        <v>0.1265563900795966</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02608637708317933</v>
+        <v>0.02705901831362837</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1831559846.567461</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3142369836.204244</v>
+        <v>2670130495.130078</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1183626817732593</v>
+        <v>0.09281417379973272</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0213127066716324</v>
+        <v>0.02772385541421198</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>52</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1571184912.417343</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3263467059.836103</v>
+        <v>3395823857.805249</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1434025262122382</v>
+        <v>0.1009094621897123</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0234215287822588</v>
+        <v>0.02624272081157825</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>61</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1631733534.927825</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4787026429.729977</v>
+        <v>3278740268.69459</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1121337502632737</v>
+        <v>0.1639737750763148</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0234293381862221</v>
+        <v>0.02077972738909139</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2393513348.345045</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2587869285.729892</v>
+        <v>2964510799.555894</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1951822596047063</v>
+        <v>0.1705779918456894</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0571026040178029</v>
+        <v>0.03855700149452498</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>79</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1293934677.441712</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_196.xlsx
+++ b/output/fit_clients/fit_round_196.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2098736423.142958</v>
+        <v>2496097837.953759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047263282262708</v>
+        <v>0.1142006071307872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03851123064285619</v>
+        <v>0.04175794606359626</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2537922292.672351</v>
+        <v>2152028421.636337</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1337251562413512</v>
+        <v>0.1651935732557495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0309494285514718</v>
+        <v>0.04162405194168822</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4871705895.997074</v>
+        <v>4836558984.83479</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1322600176826695</v>
+        <v>0.1404988567831583</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0359051762110303</v>
+        <v>0.02625352372769255</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4088286849.798016</v>
+        <v>3552801346.255298</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09744593294927156</v>
+        <v>0.09971377517431587</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04673318657702702</v>
+        <v>0.03286387255767294</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2111250867.287302</v>
+        <v>2568803797.861727</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1291042859497081</v>
+        <v>0.1030338368593351</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05393979951634077</v>
+        <v>0.04502345995951037</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2970896411.785791</v>
+        <v>2609680863.212407</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07888935286422714</v>
+        <v>0.0961706715452034</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04840918383571293</v>
+        <v>0.02985075617907233</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2746794023.974606</v>
+        <v>2831682380.680335</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1728393095809838</v>
+        <v>0.1364028055486202</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02526799242619239</v>
+        <v>0.02450896031594177</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1976542808.216208</v>
+        <v>2086617934.477939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.143568200205532</v>
+        <v>0.1344968167955291</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02675727858857027</v>
+        <v>0.02597120306772122</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5165373156.773579</v>
+        <v>5113173263.042422</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1415122076288629</v>
+        <v>0.1573867340376638</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03647118595161377</v>
+        <v>0.05230902192771172</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3656660332.196342</v>
+        <v>3797065337.825014</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14934720289903</v>
+        <v>0.1175485376520272</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04991726088111539</v>
+        <v>0.03011179308957703</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2014302110.609853</v>
+        <v>3033496134.967406</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1374913004481157</v>
+        <v>0.1529553344734417</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03602237542883088</v>
+        <v>0.05181773703863135</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3545925294.587436</v>
+        <v>3806690292.10278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07189867130375947</v>
+        <v>0.06420408672239206</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01916685617572875</v>
+        <v>0.03012235335077194</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3915394825.095834</v>
+        <v>3225901887.846856</v>
       </c>
       <c r="F14" t="n">
-        <v>0.17172099388501</v>
+        <v>0.1434766022740326</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02838468412424212</v>
+        <v>0.03643397081539349</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1651046587.914624</v>
+        <v>1673173764.066061</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09171223199793092</v>
+        <v>0.09456563323883563</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04507059154650719</v>
+        <v>0.03954060593696326</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2227489084.683277</v>
+        <v>2839688510.581181</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09680272412530315</v>
+        <v>0.111875714387258</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04173130866126663</v>
+        <v>0.04825749166043447</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4708828662.689897</v>
+        <v>4157617111.574619</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1099031057278931</v>
+        <v>0.1476860907028812</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04615382915551593</v>
+        <v>0.0349789151635457</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3262920928.335224</v>
+        <v>2858740578.653752</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1318585278563249</v>
+        <v>0.133822535912987</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02861695009881534</v>
+        <v>0.02240395699051974</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1197264886.423396</v>
+        <v>1329478036.140098</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125607279879416</v>
+        <v>0.1505873857373197</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0241634892724513</v>
+        <v>0.02607601501855572</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2483397844.884387</v>
+        <v>2187121088.633561</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1141778882323251</v>
+        <v>0.140054018417038</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0300679325465696</v>
+        <v>0.02304570943152402</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1700255173.331067</v>
+        <v>2281379612.872118</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07226557263257294</v>
+        <v>0.08279601580287227</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03012794485335881</v>
+        <v>0.04173834400014118</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2954582998.304739</v>
+        <v>3528714869.097207</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1216944731277102</v>
+        <v>0.1215120620540488</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05313488137986162</v>
+        <v>0.04423826505473669</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>952801103.9658945</v>
+        <v>1054390397.344906</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1229077735610341</v>
+        <v>0.1489091471900696</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04210844626254293</v>
+        <v>0.04665476883494787</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3206049480.489993</v>
+        <v>2724787033.380286</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1117027537964453</v>
+        <v>0.1097312450143163</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02342539428043732</v>
+        <v>0.03286027588526336</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1048949995.093295</v>
+        <v>1033013384.111303</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1088892627134797</v>
+        <v>0.1157835161702192</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01901896889554016</v>
+        <v>0.0210327165419059</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1425923085.828627</v>
+        <v>1199237114.238182</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0815586644455473</v>
+        <v>0.08816261488402688</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0362242082277129</v>
+        <v>0.02594389598730835</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3095506006.05491</v>
+        <v>4286622658.374441</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1410468639234082</v>
+        <v>0.1146384456665927</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02520682359623459</v>
+        <v>0.02008695917236832</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2693344666.093431</v>
+        <v>3123039405.189189</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1002138807869342</v>
+        <v>0.1085159574325075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04016686589167993</v>
+        <v>0.0418219940152179</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5355893214.487512</v>
+        <v>5422479267.128725</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1414739742794767</v>
+        <v>0.098064369215453</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02994775393161166</v>
+        <v>0.04526078873513621</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2356968068.156635</v>
+        <v>1800598856.781195</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08642789321888864</v>
+        <v>0.09920167392831777</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03248063719522951</v>
+        <v>0.03015076550089962</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>934073663.4222314</v>
+        <v>1163183465.740647</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1084318653517081</v>
+        <v>0.08046442825765565</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05007868112199456</v>
+        <v>0.03830856130474874</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1445119311.045326</v>
+        <v>1882698861.855444</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1008253725329435</v>
+        <v>0.08642990741313132</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03884422203018437</v>
+        <v>0.0349381946769944</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2778529413.218836</v>
+        <v>2298907406.534651</v>
       </c>
       <c r="F33" t="n">
-        <v>0.174904156506018</v>
+        <v>0.1608650810413423</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03959977195357825</v>
+        <v>0.05589885234930903</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1070988360.842054</v>
+        <v>1337167526.92126</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1203988154873975</v>
+        <v>0.1034674668410939</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02138218945246425</v>
+        <v>0.01901280454018749</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1243946382.770478</v>
+        <v>1182699917.61109</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09188879057414105</v>
+        <v>0.1140626273865712</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03935492319301194</v>
+        <v>0.04314352173678195</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2197798486.013775</v>
+        <v>3152374171.50965</v>
       </c>
       <c r="F36" t="n">
-        <v>0.111124763133579</v>
+        <v>0.150813520946495</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02218582473876673</v>
+        <v>0.02483126566575101</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1804972144.210691</v>
+        <v>1803531537.153203</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1109301060487493</v>
+        <v>0.07617050639863383</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04036183044550835</v>
+        <v>0.03569551558833613</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1794567959.694209</v>
+        <v>1917609155.09784</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08061943393553488</v>
+        <v>0.1132351270961301</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03554864827057211</v>
+        <v>0.03406725292119656</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1815789726.724349</v>
+        <v>1779983545.350184</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1930963827999982</v>
+        <v>0.1383338060783915</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03200404245074242</v>
+        <v>0.02393122210980004</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1515505054.299799</v>
+        <v>1375524144.535327</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1495488819992995</v>
+        <v>0.1418450539599815</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05074803408603855</v>
+        <v>0.0509071988601234</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1813385688.119641</v>
+        <v>2175558045.707015</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1225728988139051</v>
+        <v>0.1319998364722388</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03842439552546752</v>
+        <v>0.02868993499862569</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3258174941.05102</v>
+        <v>3176243259.665682</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1079505159662736</v>
+        <v>0.1082456873901583</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03482948257339644</v>
+        <v>0.02895974246656719</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2109533633.234695</v>
+        <v>2877960151.24321</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1469208296966851</v>
+        <v>0.1800737211240561</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02214976330147475</v>
+        <v>0.02413727543426196</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2351559253.556035</v>
+        <v>1883665597.428042</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08934039762960568</v>
+        <v>0.06293436920454228</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02962172206282353</v>
+        <v>0.02869153396682004</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1823076960.329822</v>
+        <v>1649992102.439343</v>
       </c>
       <c r="F45" t="n">
-        <v>0.177636216053492</v>
+        <v>0.1375835718354958</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03539698137923521</v>
+        <v>0.05058683700482654</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4829760146.966993</v>
+        <v>4098483300.037987</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1485047209056839</v>
+        <v>0.1663558061092344</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04617321579406718</v>
+        <v>0.05618789190688041</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3358430313.101092</v>
+        <v>4147541791.712008</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1238467642745442</v>
+        <v>0.1624515200467396</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04942649947981525</v>
+        <v>0.04426593525934337</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3332136724.1207</v>
+        <v>3254351372.870956</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08040655786119458</v>
+        <v>0.08992530474736989</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03543956727268627</v>
+        <v>0.02786527703804418</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1972820788.583213</v>
+        <v>1473724714.731409</v>
       </c>
       <c r="F49" t="n">
-        <v>0.196321589100668</v>
+        <v>0.1844488547760887</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03916920264163464</v>
+        <v>0.03214089605962668</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3485984291.401686</v>
+        <v>2981799683.189575</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1503555385488914</v>
+        <v>0.1367527652533676</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0422936614061008</v>
+        <v>0.0403801831526173</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1380659902.829005</v>
+        <v>1015988757.324506</v>
       </c>
       <c r="F51" t="n">
-        <v>0.185628785275047</v>
+        <v>0.1891627967686001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03392389286932612</v>
+        <v>0.04420025253652776</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4894320890.95149</v>
+        <v>4487836175.059958</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1248909409736691</v>
+        <v>0.1107860392229866</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04703782418568962</v>
+        <v>0.04257973973281834</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2949326886.314898</v>
+        <v>2901966252.841866</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2048446141761838</v>
+        <v>0.1654309401558711</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02699096518367664</v>
+        <v>0.03358378161451805</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4756332776.571989</v>
+        <v>3755896996.391879</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1638647101984408</v>
+        <v>0.1589334089933001</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03395527400879098</v>
+        <v>0.04460072122476995</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4969443308.218905</v>
+        <v>4193059978.183857</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1680359645842863</v>
+        <v>0.162256220885487</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02888649911503228</v>
+        <v>0.02368276553030954</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1262417259.526795</v>
+        <v>1721924608.429019</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1644113281301756</v>
+        <v>0.1172426927779462</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05619461612156634</v>
+        <v>0.04021770531083847</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3324380954.454929</v>
+        <v>3251185143.595432</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1546765460206079</v>
+        <v>0.1378544550383768</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01859997998604488</v>
+        <v>0.02583402197083463</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1773633212.399781</v>
+        <v>1377228411.775428</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1796847568635243</v>
+        <v>0.1963089420771604</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03092565925892664</v>
+        <v>0.03589652025272343</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4897504679.239373</v>
+        <v>5218991041.419456</v>
       </c>
       <c r="F59" t="n">
-        <v>0.115426692987267</v>
+        <v>0.1200809102329961</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0393524664915177</v>
+        <v>0.03767839932603603</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2323065463.788465</v>
+        <v>3581052551.62008</v>
       </c>
       <c r="F60" t="n">
-        <v>0.153247934743723</v>
+        <v>0.1383689719587422</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0244592594241309</v>
+        <v>0.02214366149174953</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2826698207.032139</v>
+        <v>2152649341.589714</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1691235355179583</v>
+        <v>0.1455457413542237</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02059278883429129</v>
+        <v>0.0320218291221259</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1330645547.414006</v>
+        <v>1659897020.343192</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1595299097168468</v>
+        <v>0.141656868056683</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04834170434439247</v>
+        <v>0.03798009909244923</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4810801523.924829</v>
+        <v>4227833949.481184</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09048845723819667</v>
+        <v>0.1033303893305924</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03088273313213722</v>
+        <v>0.04034464126045768</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3837768530.920388</v>
+        <v>4183301939.233207</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1906104135000858</v>
+        <v>0.1533690032184677</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02700931428893208</v>
+        <v>0.02919872950517884</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4206500585.706163</v>
+        <v>4873999033.524662</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1600363150274867</v>
+        <v>0.1323588068436131</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01967116570695515</v>
+        <v>0.02227593618220922</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5000023876.017471</v>
+        <v>5357064457.293192</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1233522100166729</v>
+        <v>0.1370861320524513</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05054423780457343</v>
+        <v>0.0428846275200359</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2343504461.785713</v>
+        <v>3077084839.275826</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06941415200149409</v>
+        <v>0.06221873172979474</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04061052398523913</v>
+        <v>0.04755850818488352</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5853856878.270761</v>
+        <v>6059882314.24169</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1385266316818174</v>
+        <v>0.1265295444632896</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03921743741003477</v>
+        <v>0.03581757391073265</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1709336119.294456</v>
+        <v>2347958194.438358</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1568055911450704</v>
+        <v>0.1239622226737707</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05127689818400891</v>
+        <v>0.03971864320598655</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3282603979.60196</v>
+        <v>2965980983.809126</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0772461740638707</v>
+        <v>0.09887275038751241</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03464883502576002</v>
+        <v>0.04856929333182759</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4169295740.317025</v>
+        <v>4882325852.515607</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1776194648519155</v>
+        <v>0.1505459734524376</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02958559038457717</v>
+        <v>0.0257130341440967</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2270732086.978483</v>
+        <v>2267397108.545023</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0770145058347492</v>
+        <v>0.0765456686645796</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04740601189975312</v>
+        <v>0.03997550160653768</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3010333932.449197</v>
+        <v>3120281500.700193</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08560112654360048</v>
+        <v>0.1120273876388205</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0509291904787808</v>
+        <v>0.03897071028380705</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3072131767.677572</v>
+        <v>3821096649.320293</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1475954647532494</v>
+        <v>0.1776830528919368</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03050598226838417</v>
+        <v>0.02684022181999894</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1975503709.637305</v>
+        <v>1518275726.870141</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1300296278378679</v>
+        <v>0.1268102543188573</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03510657600930847</v>
+        <v>0.03297060311486615</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5233646507.491503</v>
+        <v>4045509752.911755</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08324027886642381</v>
+        <v>0.07899826437425389</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03291588203276679</v>
+        <v>0.03166965257277581</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1755645676.655812</v>
+        <v>1614917309.284992</v>
       </c>
       <c r="F77" t="n">
-        <v>0.175226727034163</v>
+        <v>0.1718064695831587</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02658428484225509</v>
+        <v>0.02686893771506573</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3666329394.568141</v>
+        <v>4195297655.531447</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1143216625571454</v>
+        <v>0.08985374786670777</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03480111950267554</v>
+        <v>0.05651985444718777</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1627226864.55647</v>
+        <v>1486745730.805455</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1494986357314087</v>
+        <v>0.1522325385265658</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02497951795256277</v>
+        <v>0.03925217301435104</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3479414766.211029</v>
+        <v>3409046165.219188</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08013369128920525</v>
+        <v>0.1028854621591386</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03133436140942551</v>
+        <v>0.02631629679841681</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4566172179.267967</v>
+        <v>4385828150.389943</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1278536626950585</v>
+        <v>0.1102969527741988</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02127760648892879</v>
+        <v>0.02804913933690988</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5067872476.338076</v>
+        <v>3570844600.654438</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1866206201484676</v>
+        <v>0.1955604058378922</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02839972002919846</v>
+        <v>0.02162273346149986</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2207541727.004312</v>
+        <v>2130015507.25054</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1505635657191768</v>
+        <v>0.1224627441859593</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04514215293580675</v>
+        <v>0.0399306240746864</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1957891402.830503</v>
+        <v>2165794802.055334</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1040290142069261</v>
+        <v>0.1185479117027886</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05139860201121148</v>
+        <v>0.04667910721827336</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3560598544.323653</v>
+        <v>2246370986.270974</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1303756723304863</v>
+        <v>0.1210634555622497</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04832410730179895</v>
+        <v>0.04249937298165835</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1897908823.638066</v>
+        <v>2653809388.301772</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1308925888686391</v>
+        <v>0.1122243435445864</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01890770780539107</v>
+        <v>0.02284821760924833</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1395590970.260607</v>
+        <v>1005338187.665765</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1687134424795275</v>
+        <v>0.1333749055919156</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03543524212914175</v>
+        <v>0.03364952386416407</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3541255102.153187</v>
+        <v>3702995955.660948</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1173856373910577</v>
+        <v>0.1084702545308553</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03582712803526731</v>
+        <v>0.02677554646289913</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3449831493.059009</v>
+        <v>3058334674.760077</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1014850836412326</v>
+        <v>0.139430601575503</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02828087070853107</v>
+        <v>0.03334091445534216</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1582923203.896347</v>
+        <v>1470356778.395396</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1197690769973462</v>
+        <v>0.1381510105586151</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03706234704207733</v>
+        <v>0.03687220294853676</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1599524004.471645</v>
+        <v>1473645733.773116</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1644115189267002</v>
+        <v>0.1536693364657579</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05720384005711047</v>
+        <v>0.03761336061105881</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2023755290.559837</v>
+        <v>2648585576.596502</v>
       </c>
       <c r="F92" t="n">
-        <v>0.100079517598679</v>
+        <v>0.08722844218668703</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03011025566815486</v>
+        <v>0.03700001736473138</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4445980104.479647</v>
+        <v>4560248621.443975</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1104159549756156</v>
+        <v>0.08930667653006681</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05038053691997083</v>
+        <v>0.05352227707349486</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1734706087.886792</v>
+        <v>1776517235.46198</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1643279771107981</v>
+        <v>0.1151105319200002</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03017067893033627</v>
+        <v>0.03460566966617312</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2840425223.356346</v>
+        <v>3237434621.339849</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09058135661222698</v>
+        <v>0.1034341166907588</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03924520400955434</v>
+        <v>0.03334372850946334</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1460560381.360776</v>
+        <v>1747062795.386336</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09770680766268529</v>
+        <v>0.101563693782049</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03887542587010231</v>
+        <v>0.03171365826653047</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4945488503.607419</v>
+        <v>3681461744.498637</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1265563900795966</v>
+        <v>0.1066799211578374</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02705901831362837</v>
+        <v>0.0243475576723357</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2670130495.130078</v>
+        <v>2947364204.619253</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09281417379973272</v>
+        <v>0.1257127449143176</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02772385541421198</v>
+        <v>0.02959534388605975</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3395823857.805249</v>
+        <v>2881437402.20033</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1009094621897123</v>
+        <v>0.09828450676688537</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02624272081157825</v>
+        <v>0.02707550557026792</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3278740268.69459</v>
+        <v>3252483733.009879</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1639737750763148</v>
+        <v>0.1724828844339117</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02077972738909139</v>
+        <v>0.01771002391016792</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2964510799.555894</v>
+        <v>2581301931.609701</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1705779918456894</v>
+        <v>0.1865132641466213</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03855700149452498</v>
+        <v>0.0376982026355597</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_196.xlsx
+++ b/output/fit_clients/fit_round_196.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2496097837.953759</v>
+        <v>1689792325.647573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1142006071307872</v>
+        <v>0.09116068473902589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04175794606359626</v>
+        <v>0.03860654317127321</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2152028421.636337</v>
+        <v>1954835729.41132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1651935732557495</v>
+        <v>0.1364479158334743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04162405194168822</v>
+        <v>0.03122465748520699</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4836558984.83479</v>
+        <v>4616188587.005907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1404988567831583</v>
+        <v>0.1662469039072621</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02625352372769255</v>
+        <v>0.03648430124154482</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>108</v>
+      </c>
+      <c r="J4" t="n">
+        <v>195</v>
+      </c>
+      <c r="K4" t="n">
+        <v>119.7030318062284</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3552801346.255298</v>
+        <v>3465994969.63759</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09971377517431587</v>
+        <v>0.1099009166842107</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03286387255767294</v>
+        <v>0.04401353200099789</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>82</v>
+      </c>
+      <c r="J5" t="n">
+        <v>195</v>
+      </c>
+      <c r="K5" t="n">
+        <v>106.2417456543792</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2568803797.861727</v>
+        <v>2247424143.058513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1030338368593351</v>
+        <v>0.1024550356261862</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04502345995951037</v>
+        <v>0.04304149793948386</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2609680863.212407</v>
+        <v>2908831017.748062</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0961706715452034</v>
+        <v>0.08764324692498911</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02985075617907233</v>
+        <v>0.04678340835708734</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2831682380.680335</v>
+        <v>3654022333.643829</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1364028055486202</v>
+        <v>0.1822647096853713</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02450896031594177</v>
+        <v>0.02540953316592255</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>196</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2086617934.477939</v>
+        <v>1826587390.077201</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1344968167955291</v>
+        <v>0.1753362601007021</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02597120306772122</v>
+        <v>0.03440100774273121</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5113173263.042422</v>
+        <v>4649830556.801891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1573867340376638</v>
+        <v>0.1739928775371005</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05230902192771172</v>
+        <v>0.04208644081254295</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>179</v>
+      </c>
+      <c r="J10" t="n">
+        <v>196</v>
+      </c>
+      <c r="K10" t="n">
+        <v>130.9603278425234</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3797065337.825014</v>
+        <v>2872433142.344444</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1175485376520272</v>
+        <v>0.1804234181749732</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03011179308957703</v>
+        <v>0.03872289667184382</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J11" t="n">
+        <v>195</v>
+      </c>
+      <c r="K11" t="n">
+        <v>69.23648702447379</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3033496134.967406</v>
+        <v>2012943136.668134</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1529553344734417</v>
+        <v>0.1951066322897016</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05181773703863135</v>
+        <v>0.04557713732128826</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3806690292.10278</v>
+        <v>5347543375.615125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06420408672239206</v>
+        <v>0.07674566682067469</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03012235335077194</v>
+        <v>0.02769779625010126</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>98</v>
+      </c>
+      <c r="J13" t="n">
+        <v>196</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3225901887.846856</v>
+        <v>2658421597.726989</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1434766022740326</v>
+        <v>0.1887536669033284</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03643397081539349</v>
+        <v>0.04282778057268964</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>195</v>
+      </c>
+      <c r="K14" t="n">
+        <v>55.18458107592916</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1673173764.066061</v>
+        <v>1262793582.266139</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09456563323883563</v>
+        <v>0.09149483139428863</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03954060593696326</v>
+        <v>0.03639969646836552</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2839688510.581181</v>
+        <v>2450799004.355094</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111875714387258</v>
+        <v>0.08433947757569905</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04825749166043447</v>
+        <v>0.03983767603835971</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1036,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4157617111.574619</v>
+        <v>3955945416.32023</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1476860907028812</v>
+        <v>0.1373249424059793</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0349789151635457</v>
+        <v>0.03226907538354089</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>94</v>
+      </c>
+      <c r="J17" t="n">
+        <v>195</v>
+      </c>
+      <c r="K17" t="n">
+        <v>110.8019458493527</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2858740578.653752</v>
+        <v>3921428757.971753</v>
       </c>
       <c r="F18" t="n">
-        <v>0.133822535912987</v>
+        <v>0.1567014565841363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02240395699051974</v>
+        <v>0.02747311714487872</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>49</v>
+      </c>
+      <c r="J18" t="n">
+        <v>196</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1329478036.140098</v>
+        <v>1317378142.783043</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1505873857373197</v>
+        <v>0.175348395806568</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02607601501855572</v>
+        <v>0.02272191072280585</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2187121088.633561</v>
+        <v>2305926558.489552</v>
       </c>
       <c r="F20" t="n">
-        <v>0.140054018417038</v>
+        <v>0.1308969926422938</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02304570943152402</v>
+        <v>0.02816133613504583</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2281379612.872118</v>
+        <v>2161237743.036288</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08279601580287227</v>
+        <v>0.08111217082271552</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04173834400014118</v>
+        <v>0.03523506719139364</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1213,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3528714869.097207</v>
+        <v>2592144858.353803</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1215120620540488</v>
+        <v>0.1106070620172217</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04423826505473669</v>
+        <v>0.05722917517524301</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="n">
+        <v>195</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.08220388381456</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1054390397.344906</v>
+        <v>1261140615.580885</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1489091471900696</v>
+        <v>0.1366215299494066</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04665476883494787</v>
+        <v>0.04607734583921988</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2724787033.380286</v>
+        <v>3516728961.284921</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1097312450143163</v>
+        <v>0.123668074092388</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03286027588526336</v>
+        <v>0.0334679490235733</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J24" t="n">
+        <v>189</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1033013384.111303</v>
+        <v>1386682864.232205</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1157835161702192</v>
+        <v>0.1109922656144901</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0210327165419059</v>
+        <v>0.0275902267165661</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1199237114.238182</v>
+        <v>1055525654.939844</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08816261488402688</v>
+        <v>0.09159649701964723</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02594389598730835</v>
+        <v>0.02738773331775698</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4286622658.374441</v>
+        <v>4135232725.027435</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1146384456665927</v>
+        <v>0.1094452860413034</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02008695917236832</v>
+        <v>0.02530699913187211</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>78</v>
+      </c>
+      <c r="J27" t="n">
+        <v>196</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3123039405.189189</v>
+        <v>2506411490.093515</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1085159574325075</v>
+        <v>0.1128123766287949</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0418219940152179</v>
+        <v>0.0499710383399798</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>40</v>
+      </c>
+      <c r="J28" t="n">
+        <v>193</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5422479267.128725</v>
+        <v>5353144972.688932</v>
       </c>
       <c r="F29" t="n">
-        <v>0.098064369215453</v>
+        <v>0.133999957880796</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04526078873513621</v>
+        <v>0.03191884081958418</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>185</v>
+      </c>
+      <c r="J29" t="n">
+        <v>196</v>
+      </c>
+      <c r="K29" t="n">
+        <v>137.6965021448903</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1800598856.781195</v>
+        <v>2158313348.836071</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09920167392831777</v>
+        <v>0.1327173336808524</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03015076550089962</v>
+        <v>0.03382629691591874</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1163183465.740647</v>
+        <v>1417329889.611773</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08046442825765565</v>
+        <v>0.09343020912806226</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03830856130474874</v>
+        <v>0.04122213501994803</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1882698861.855444</v>
+        <v>1152137215.613766</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08642990741313132</v>
+        <v>0.08916384632536353</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0349381946769944</v>
+        <v>0.03710896078821398</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2298907406.534651</v>
+        <v>1942018733.232991</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1608650810413423</v>
+        <v>0.165494166765179</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05589885234930903</v>
+        <v>0.03827873933942412</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1337167526.92126</v>
+        <v>1357849356.251126</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1034674668410939</v>
+        <v>0.1110149398006717</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01901280454018749</v>
+        <v>0.02426580559571981</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1182699917.61109</v>
+        <v>1315921802.830621</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1140626273865712</v>
+        <v>0.08345127855309689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04314352173678195</v>
+        <v>0.03675779893013548</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3152374171.50965</v>
+        <v>3031173831.641877</v>
       </c>
       <c r="F36" t="n">
-        <v>0.150813520946495</v>
+        <v>0.1764376549048893</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02483126566575101</v>
+        <v>0.01749901324820045</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1803531537.153203</v>
+        <v>2202424629.981601</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07617050639863383</v>
+        <v>0.1061202234166783</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03569551558833613</v>
+        <v>0.03407309134389305</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1917609155.09784</v>
+        <v>1931770531.229997</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1132351270961301</v>
+        <v>0.0867634478646771</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03406725292119656</v>
+        <v>0.03802662978595356</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1779983545.350184</v>
+        <v>2031608311.083819</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1383338060783915</v>
+        <v>0.1520381815195586</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02393122210980004</v>
+        <v>0.02527011210733067</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1375524144.535327</v>
+        <v>1189287084.296023</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1418450539599815</v>
+        <v>0.1053410916323214</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0509071988601234</v>
+        <v>0.05975187938262817</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2175558045.707015</v>
+        <v>1983533930.711297</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1319998364722388</v>
+        <v>0.1036239201726124</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02868993499862569</v>
+        <v>0.04191855037232841</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3176243259.665682</v>
+        <v>3923350900.418458</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1082456873901583</v>
+        <v>0.08666419348854852</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02895974246656719</v>
+        <v>0.031202401879789</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>76</v>
+      </c>
+      <c r="J42" t="n">
+        <v>196</v>
+      </c>
+      <c r="K42" t="n">
+        <v>122.581523233179</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2877960151.24321</v>
+        <v>2787839753.774662</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1800737211240561</v>
+        <v>0.1259685493765595</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02413727543426196</v>
+        <v>0.01754835504554974</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1883665597.428042</v>
+        <v>1629442989.918125</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06293436920454228</v>
+        <v>0.06737006383570211</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02869153396682004</v>
+        <v>0.02370681779882151</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1649992102.439343</v>
+        <v>1721667476.536574</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1375835718354958</v>
+        <v>0.1226003195728203</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05058683700482654</v>
+        <v>0.05461234497401532</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4098483300.037987</v>
+        <v>5228315371.391129</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1663558061092344</v>
+        <v>0.1373025352235346</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05618789190688041</v>
+        <v>0.0549234204945936</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>112</v>
+      </c>
+      <c r="J46" t="n">
+        <v>195</v>
+      </c>
+      <c r="K46" t="n">
+        <v>122.173740729174</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4147541791.712008</v>
+        <v>4995648348.239093</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1624515200467396</v>
+        <v>0.175383824431094</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04426593525934337</v>
+        <v>0.0419746023288963</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>87</v>
+      </c>
+      <c r="J47" t="n">
+        <v>196</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3254351372.870956</v>
+        <v>3063170831.473952</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08992530474736989</v>
+        <v>0.1057475791186687</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02786527703804418</v>
+        <v>0.0288468279778778</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>94</v>
+      </c>
+      <c r="J48" t="n">
+        <v>195</v>
+      </c>
+      <c r="K48" t="n">
+        <v>75.23096289582431</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1473724714.731409</v>
+        <v>1854052410.907095</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1844488547760887</v>
+        <v>0.1414634337469515</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03214089605962668</v>
+        <v>0.03951421370563815</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2981799683.189575</v>
+        <v>3389370153.979614</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1367527652533676</v>
+        <v>0.1427968865949702</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0403801831526173</v>
+        <v>0.04227528431975583</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>62</v>
+      </c>
+      <c r="J50" t="n">
+        <v>193</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1015988757.324506</v>
+        <v>1117166486.702188</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1891627967686001</v>
+        <v>0.192037506269593</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04420025253652776</v>
+        <v>0.05319604771839145</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4487836175.059958</v>
+        <v>3442559248.928974</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1107860392229866</v>
+        <v>0.1132430072958438</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04257973973281834</v>
+        <v>0.03990821661020334</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>136</v>
+      </c>
+      <c r="J52" t="n">
+        <v>195</v>
+      </c>
+      <c r="K52" t="n">
+        <v>90.07833314518378</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2901966252.841866</v>
+        <v>2733754597.363984</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1654309401558711</v>
+        <v>0.1404200924495276</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03358378161451805</v>
+        <v>0.02521399051298042</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3755896996.391879</v>
+        <v>4667664452.614039</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1589334089933001</v>
+        <v>0.1528638705475337</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04460072122476995</v>
+        <v>0.04295160552442932</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>100</v>
+      </c>
+      <c r="J54" t="n">
+        <v>196</v>
+      </c>
+      <c r="K54" t="n">
+        <v>124.8969414422496</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2376,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4193059978.183857</v>
+        <v>3633190485.278509</v>
       </c>
       <c r="F55" t="n">
-        <v>0.162256220885487</v>
+        <v>0.1534753090514095</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02368276553030954</v>
+        <v>0.02176959185961745</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>88</v>
+      </c>
+      <c r="J55" t="n">
+        <v>195</v>
+      </c>
+      <c r="K55" t="n">
+        <v>99.66742338859328</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1721924608.429019</v>
+        <v>1417631487.781747</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1172426927779462</v>
+        <v>0.1089989906977261</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04021770531083847</v>
+        <v>0.04653458509136502</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3251185143.595432</v>
+        <v>3668210785.722889</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1378544550383768</v>
+        <v>0.1536397113073752</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02583402197083463</v>
+        <v>0.02225247995103526</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>78</v>
+      </c>
+      <c r="J57" t="n">
+        <v>196</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1377228411.775428</v>
+        <v>1445271638.66274</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1963089420771604</v>
+        <v>0.1645413734591072</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03589652025272343</v>
+        <v>0.03044712223473745</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5218991041.419456</v>
+        <v>4857693274.796965</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1200809102329961</v>
+        <v>0.103144252352369</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03767839932603603</v>
+        <v>0.04822368990709136</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>94</v>
+      </c>
+      <c r="J59" t="n">
+        <v>196</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3581052551.62008</v>
+        <v>2700145091.442664</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1383689719587422</v>
+        <v>0.1354040458503431</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02214366149174953</v>
+        <v>0.02029268466584849</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2594,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2152649341.589714</v>
+        <v>2287647273.279675</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1455457413542237</v>
+        <v>0.1587523363179131</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0320218291221259</v>
+        <v>0.02855358306521767</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1659897020.343192</v>
+        <v>1293819351.523647</v>
       </c>
       <c r="F62" t="n">
-        <v>0.141656868056683</v>
+        <v>0.17203205480208</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03798009909244923</v>
+        <v>0.04107292199739108</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4227833949.481184</v>
+        <v>3432513221.028313</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1033303893305924</v>
+        <v>0.09795842260258833</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04034464126045768</v>
+        <v>0.02891253673263562</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>96</v>
+      </c>
+      <c r="J63" t="n">
+        <v>194</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4183301939.233207</v>
+        <v>3992112393.592926</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1533690032184677</v>
+        <v>0.1191693515118833</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02919872950517884</v>
+        <v>0.03416887125346403</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>96</v>
+      </c>
+      <c r="J64" t="n">
+        <v>196</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4873999033.524662</v>
+        <v>5606591132.720312</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1323588068436131</v>
+        <v>0.1326446941094115</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02227593618220922</v>
+        <v>0.02781100025285634</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>159</v>
+      </c>
+      <c r="J65" t="n">
+        <v>196</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5357064457.293192</v>
+        <v>3747966275.846507</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1370861320524513</v>
+        <v>0.1163020177532004</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0428846275200359</v>
+        <v>0.03340557646019074</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>96</v>
+      </c>
+      <c r="J66" t="n">
+        <v>196</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3077084839.275826</v>
+        <v>3113918316.219868</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06221873172979474</v>
+        <v>0.07732213667921435</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04755850818488352</v>
+        <v>0.03175922336778807</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6059882314.24169</v>
+        <v>5006042396.44047</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1265295444632896</v>
+        <v>0.1415776721400845</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03581757391073265</v>
+        <v>0.03679141072121744</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>99</v>
+      </c>
+      <c r="J68" t="n">
+        <v>195</v>
+      </c>
+      <c r="K68" t="n">
+        <v>118.6061489817124</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2347958194.438358</v>
+        <v>1748397456.196617</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1239622226737707</v>
+        <v>0.1597958004504652</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03971864320598655</v>
+        <v>0.03960671167620643</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2965980983.809126</v>
+        <v>3713867971.630765</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09887275038751241</v>
+        <v>0.08523173950630612</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04856929333182759</v>
+        <v>0.03933253753329762</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>28</v>
+      </c>
+      <c r="J70" t="n">
+        <v>196</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4882325852.515607</v>
+        <v>5184025112.669911</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1505459734524376</v>
+        <v>0.152074577027378</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0257130341440967</v>
+        <v>0.03081119807286885</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>151</v>
+      </c>
+      <c r="J71" t="n">
+        <v>196</v>
+      </c>
+      <c r="K71" t="n">
+        <v>122.492339570673</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2267397108.545023</v>
+        <v>1464952292.027772</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0765456686645796</v>
+        <v>0.08671871262523805</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03997550160653768</v>
+        <v>0.04171085786157996</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3120281500.700193</v>
+        <v>2303239593.694978</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1120273876388205</v>
+        <v>0.09534292374342089</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03897071028380705</v>
+        <v>0.03221201841610403</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3821096649.320293</v>
+        <v>3896582936.216915</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1776830528919368</v>
+        <v>0.124628293069135</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02684022181999894</v>
+        <v>0.03114709944607933</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>55</v>
+      </c>
+      <c r="J74" t="n">
+        <v>196</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1518275726.870141</v>
+        <v>1945935321.335146</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1268102543188573</v>
+        <v>0.1263011470108861</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03297060311486615</v>
+        <v>0.03519884518320745</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4045509752.911755</v>
+        <v>4856176484.548401</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07899826437425389</v>
+        <v>0.08053234650680895</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03166965257277581</v>
+        <v>0.02465802542975435</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>89</v>
+      </c>
+      <c r="J76" t="n">
+        <v>196</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1614917309.284992</v>
+        <v>1670731474.893385</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1718064695831587</v>
+        <v>0.1210514150350181</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02686893771506573</v>
+        <v>0.02333944215947848</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4195297655.531447</v>
+        <v>3257177889.903133</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08985374786670777</v>
+        <v>0.0968426180786493</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05651985444718777</v>
+        <v>0.05543868883422089</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99</v>
+      </c>
+      <c r="J78" t="n">
+        <v>195</v>
+      </c>
+      <c r="K78" t="n">
+        <v>84.57022999706676</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1486745730.805455</v>
+        <v>1762753620.588321</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1522325385265658</v>
+        <v>0.1485816758754351</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03925217301435104</v>
+        <v>0.02671193129953312</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3409046165.219188</v>
+        <v>4172142409.485278</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1028854621591386</v>
+        <v>0.1033091539454103</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02631629679841681</v>
+        <v>0.03430314350678691</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>96</v>
+      </c>
+      <c r="J80" t="n">
+        <v>195</v>
+      </c>
+      <c r="K80" t="n">
+        <v>89.68892607515686</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4385828150.389943</v>
+        <v>4833942764.655887</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1102969527741988</v>
+        <v>0.09607465967504959</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02804913933690988</v>
+        <v>0.02355249975102719</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>90</v>
+      </c>
+      <c r="J81" t="n">
+        <v>195</v>
+      </c>
+      <c r="K81" t="n">
+        <v>105.2340299044692</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3570844600.654438</v>
+        <v>5636165138.158744</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1955604058378922</v>
+        <v>0.1464970909946587</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02162273346149986</v>
+        <v>0.02738132885728747</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>144</v>
+      </c>
+      <c r="J82" t="n">
+        <v>196</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2130015507.25054</v>
+        <v>1946465878.260452</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1224627441859593</v>
+        <v>0.107640013814555</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0399306240746864</v>
+        <v>0.03437472274988496</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2165794802.055334</v>
+        <v>2441882150.763154</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1185479117027886</v>
+        <v>0.1200635975580616</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04667910721827336</v>
+        <v>0.05174597650997953</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2246370986.270974</v>
+        <v>3119198050.404171</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1210634555622497</v>
+        <v>0.1147755989582984</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04249937298165835</v>
+        <v>0.04078670646161733</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2653809388.301772</v>
+        <v>2679208336.886407</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1122243435445864</v>
+        <v>0.1642327527264233</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02284821760924833</v>
+        <v>0.02128913227301962</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1005338187.665765</v>
+        <v>1381453076.607363</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1333749055919156</v>
+        <v>0.1392976798043965</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03364952386416407</v>
+        <v>0.04241039183323014</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3702995955.660948</v>
+        <v>2618426608.158097</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1084702545308553</v>
+        <v>0.1449232783256448</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02677554646289913</v>
+        <v>0.029927303394979</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3058334674.760077</v>
+        <v>3144749838.822868</v>
       </c>
       <c r="F89" t="n">
-        <v>0.139430601575503</v>
+        <v>0.1234026734367119</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03334091445534216</v>
+        <v>0.03732047152740393</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1470356778.395396</v>
+        <v>1671481088.491989</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1381510105586151</v>
+        <v>0.1054970988020774</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03687220294853676</v>
+        <v>0.03413539112313614</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1473645733.773116</v>
+        <v>1633201194.082018</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1536693364657579</v>
+        <v>0.119477720111741</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03761336061105881</v>
+        <v>0.04317920919309878</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2648585576.596502</v>
+        <v>2399250355.460429</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08722844218668703</v>
+        <v>0.09676068859301067</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03700001736473138</v>
+        <v>0.0347842713621545</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4560248621.443975</v>
+        <v>5010662148.893777</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08930667653006681</v>
+        <v>0.1081149637214401</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05352227707349486</v>
+        <v>0.04874159954307737</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>88</v>
+      </c>
+      <c r="J93" t="n">
+        <v>196</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1776517235.46198</v>
+        <v>1532151397.044286</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1151105319200002</v>
+        <v>0.1492714059958288</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03460566966617312</v>
+        <v>0.03130456176587015</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3237434621.339849</v>
+        <v>2948007043.707663</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1034341166907588</v>
+        <v>0.08497849114556587</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03334372850946334</v>
+        <v>0.03216939600628357</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1747062795.386336</v>
+        <v>1532215415.201907</v>
       </c>
       <c r="F96" t="n">
-        <v>0.101563693782049</v>
+        <v>0.1307230170962838</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03171365826653047</v>
+        <v>0.03542843545482835</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3681461744.498637</v>
+        <v>4901745653.018364</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1066799211578374</v>
+        <v>0.1723058780786855</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0243475576723357</v>
+        <v>0.02446566093853311</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>95</v>
+      </c>
+      <c r="J97" t="n">
+        <v>195</v>
+      </c>
+      <c r="K97" t="n">
+        <v>120.2561076929839</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2947364204.619253</v>
+        <v>2427935950.176794</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1257127449143176</v>
+        <v>0.0956267788811757</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02959534388605975</v>
+        <v>0.0325108958929617</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>48</v>
+      </c>
+      <c r="J98" t="n">
+        <v>193</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2881437402.20033</v>
+        <v>2654801422.168355</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09828450676688537</v>
+        <v>0.1439804178067623</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02707550557026792</v>
+        <v>0.02678483541122442</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3252483733.009879</v>
+        <v>3282384719.389458</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1724828844339117</v>
+        <v>0.1098695979714844</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01771002391016792</v>
+        <v>0.01896190995227468</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>81</v>
+      </c>
+      <c r="J100" t="n">
+        <v>194</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2581301931.609701</v>
+        <v>2988164613.747515</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1865132641466213</v>
+        <v>0.1704242112698451</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0376982026355597</v>
+        <v>0.03935123591691945</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
